--- a/Thesis/Sale.xlsx
+++ b/Thesis/Sale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\source\repos\Thesis\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7DC9A3-6DCF-469F-82CC-87C45FA506FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20560653-F75F-45EB-808C-EF7F9F6EB1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="900" windowWidth="23265" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="450" windowWidth="23265" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="7" r:id="rId1"/>
@@ -21,27 +21,16 @@
     <sheet name="ПоГодам" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_Месяцы">#N/A</definedName>
+    <definedName name="Slicer_Регион">#N/A</definedName>
+    <definedName name="Slicer_Организация">#N/A</definedName>
     <definedName name="Slicer_Годы">#N/A</definedName>
-    <definedName name="Slicer_Месяцы">#N/A</definedName>
-    <definedName name="Slicer_Организация">#N/A</definedName>
-    <definedName name="Slicer_Регион">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId7"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
-      <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
-        <x14:slicerCache r:id="rId9"/>
-        <x14:slicerCache r:id="rId10"/>
-        <x14:slicerCache r:id="rId11"/>
-      </x14:slicerCaches>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -53,12 +42,20 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
+      </x14:slicerCaches>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Дата</t>
   </si>
@@ -129,12 +126,6 @@
     <t>Полоцк</t>
   </si>
   <si>
-    <t>Абоба</t>
-  </si>
-  <si>
-    <t>Сосочка</t>
-  </si>
-  <si>
     <t>Месяц</t>
   </si>
   <si>
@@ -182,45 +173,15 @@
   <si>
     <t>Количество по полю Выручка</t>
   </si>
-  <si>
-    <t>Июль</t>
-  </si>
-  <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
-    <t>Октябрь</t>
-  </si>
-  <si>
-    <t>Январь</t>
-  </si>
-  <si>
-    <t>Февраль</t>
-  </si>
-  <si>
-    <t>Ноябрь</t>
-  </si>
-  <si>
-    <t>Июнь</t>
-  </si>
-  <si>
-    <t>Август</t>
-  </si>
-  <si>
-    <t>Апрель</t>
-  </si>
-  <si>
-    <t>Декабрь</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\.dd\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm.dd.yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,32 +261,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{0BABB248-9372-479E-9AF1-B1C087DA400A}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -370,7 +357,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sale.xlsx]ПоМесяцам!Сводная таблица2</c:name>
+    <c:name>[ReportSales.xlsx]ПоМесяцам!Сводная таблица2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -521,75 +508,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ПоМесяцам!$A$4:$A$15</c:f>
+              <c:f>ПоМесяцам!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>Июль</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Сентябрь</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Октябрь</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Январь</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Февраль</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ноябрь</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Июнь</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Август</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Апрель</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Декабрь</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ПоМесяцам!$B$4:$B$15</c:f>
+              <c:f>ПоМесяцам!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>1134000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>256500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -799,7 +729,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sale.xlsx]ПоОрганизации!Сводная таблица3</c:name>
+    <c:name>[ReportSales.xlsx]ПоОрганизации!Сводная таблица3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -950,81 +880,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ПоОрганизации!$A$4:$A$15</c:f>
+              <c:f>ПоОрганизации!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>(пусто)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Марко</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rylko</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Basconi</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Shoes Terra</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ECCO</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FAER</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Луч</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Footterra</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>HitPrice</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Абоба</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ПоОрганизации!$B$4:$B$15</c:f>
+              <c:f>ПоОрганизации!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>1134000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>256500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1234,7 +1104,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sale.xlsx]ПоГодам!Сводная таблица6</c:name>
+    <c:name>[ReportSales.xlsx]ПоГодам!Сводная таблица6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1385,27 +1255,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ПоГодам!$A$4:$A$7</c:f>
+              <c:f>ПоГодам!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2025</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ПоГодам!$B$4:$B$7</c:f>
+              <c:f>ПоГодам!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>1458300</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1614,7 +1475,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sale.xlsx]ПоРегионам!Сводная таблица5</c:name>
+    <c:name>[ReportSales.xlsx]ПоРегионам!Сводная таблица5</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -1765,75 +1626,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ПоРегионам!$A$4:$A$14</c:f>
+              <c:f>ПоРегионам!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>(пусто)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Минск</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Гомель</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Годно</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Витебск</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Брест</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Могилев</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Жлобин</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Полоцк</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Сосочка</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ПоРегионам!$B$4:$B$14</c:f>
+              <c:f>ПоРегионам!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>Основной</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>1134000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4347,7 +4154,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="10001250" y="762000"/>
+    <xdr:pos y="762000" x="10001250"/>
     <xdr:ext cx="1905000" cy="5715000"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -4356,7 +4163,7 @@
             <xdr:cNvPr id="6" name="Месяцы">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE84989-7078-4887-A681-BA10F667C81F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{e232d608-192f-41fd-8375-e8c32a0443b6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4373,10 +4180,10 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="{0be84989-7078-4887-a681-ba10f667c81f}"/>
+            <xdr:cNvPr id="6" name="{e232d608-192f-41fd-8375-e8c32a0443b6}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4411,10 +4218,10 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="11906250" y="762000"/>
+    <xdr:pos y="762000" x="11906250"/>
     <xdr:ext cx="1905000" cy="1905000"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -4423,7 +4230,7 @@
             <xdr:cNvPr id="7" name="Регион">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F0F513-1E27-41A8-9334-D3946C0225D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{d9cba74a-41be-47fa-b1b4-a14b7cbf7608}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4440,10 +4247,10 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="{35f0f513-1e27-41a8-9334-d3946c0225d5}"/>
+            <xdr:cNvPr id="7" name="{d9cba74a-41be-47fa-b1b4-a14b7cbf7608}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4478,10 +4285,10 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="11906250" y="2667000"/>
+    <xdr:pos y="2667000" x="11906250"/>
     <xdr:ext cx="1905000" cy="1905000"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -4490,7 +4297,7 @@
             <xdr:cNvPr id="8" name="Организация">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196425F2-E7E6-4CCC-9CC8-2BDF84FC22D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293b70c3-5221-4df2-af2a-145104729d4f}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4507,10 +4314,10 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="{196425f2-e7e6-4ccc-9cc8-2bdf84fc22d3}"/>
+            <xdr:cNvPr id="8" name="{293b70c3-5221-4df2-af2a-145104729d4f}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4545,10 +4352,10 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="11906250" y="4572000"/>
+    <xdr:pos y="4572000" x="11906250"/>
     <xdr:ext cx="1905000" cy="1905000"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -4557,7 +4364,7 @@
             <xdr:cNvPr id="9" name="Годы">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1CC93B-C91F-49D9-8525-FA0B070E888C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0666185f-22af-472e-8357-c1785f1cf6ea}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4574,10 +4381,10 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="{0d1cc93b-c91f-49d9-8525-fa0b070e888c}"/>
+            <xdr:cNvPr id="9" name="{0666185f-22af-472e-8357-c1785f1cf6ea}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4612,22 +4419,22 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Mi" refreshedDate="44620.723251736112" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="249" xr:uid="{D06C292B-D8BB-4E53-ACCE-93E04DA8FC86}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mi" refreshedDate="44620.666805787034" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="249" xr:uid="{D06C292B-D8BB-4E53-ACCE-93E04DA8FC86}" refreshOnLoad="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
   <cacheFields count="6">
-    <cacheField name="Дата" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-01-11T00:00:00" maxDate="2025-07-15T22:17:07"/>
+    <cacheField name="Дата" numFmtId="0">
+      <sharedItems containsDate="1" containsBlank="1" containsString="0"/>
     </cacheField>
     <cacheField name="Организация" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1">
         <s v="Марко"/>
         <s v="Rylko"/>
         <s v="Basconi"/>
@@ -4637,12 +4444,11 @@
         <s v="Луч"/>
         <s v="Footterra"/>
         <s v="HitPrice"/>
-        <s v="Абоба"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Регион" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1">
         <s v="Минск"/>
         <s v="Гомель"/>
         <s v="Годно"/>
@@ -4651,32 +4457,19 @@
         <s v="Могилев"/>
         <s v="Жлобин"/>
         <s v="Полоцк"/>
-        <s v="Сосочка"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Выручка" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1134000"/>
+      <sharedItems containsNumber="1" containsInteger="1" containsBlank="1" containsString="0"/>
     </cacheField>
     <cacheField name="Годы" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2022" maxValue="2025" count="3">
-        <n v="2022"/>
-        <n v="2025"/>
+      <sharedItems>
         <s v=""/>
       </sharedItems>
     </cacheField>
     <cacheField name="Месяцы" numFmtId="0">
-      <sharedItems count="11">
-        <s v="Июль"/>
-        <s v="Сентябрь"/>
-        <s v="Октябрь"/>
-        <s v="Январь"/>
-        <s v="Февраль"/>
-        <s v="Ноябрь"/>
-        <s v="Июнь"/>
-        <s v="Август"/>
-        <s v="Апрель"/>
-        <s v="Декабрь"/>
+      <sharedItems>
         <s v=""/>
       </sharedItems>
     </cacheField>
@@ -4690,2060 +4483,53 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="249">
-  <r>
-    <d v="2022-07-10T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1134000"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-09-10T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-10-10T00:00:00"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <d v="2022-01-11T00:00:00"/>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <d v="2022-02-11T00:00:00"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <d v="2022-11-24T00:00:00"/>
-    <x v="5"/>
-    <x v="4"/>
-    <n v="256500"/>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <d v="2022-09-20T00:00:00"/>
-    <x v="6"/>
-    <x v="5"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-06-21T00:00:00"/>
-    <x v="7"/>
-    <x v="6"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2022-08-15T00:00:00"/>
-    <x v="8"/>
-    <x v="7"/>
-    <n v="67500"/>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <d v="2022-04-18T19:04:37"/>
-    <x v="9"/>
-    <x v="8"/>
-    <m/>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <d v="2022-06-07T19:15:27"/>
-    <x v="9"/>
-    <x v="8"/>
-    <n v="150"/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2022-06-29T21:14:04"/>
-    <x v="9"/>
-    <x v="8"/>
-    <m/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2022-06-07T22:10:38"/>
-    <x v="9"/>
-    <x v="8"/>
-    <m/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2025-07-15T22:17:07"/>
-    <x v="9"/>
-    <x v="8"/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <d v="2022-06-18T22:20:15"/>
-    <x v="9"/>
-    <x v="8"/>
-    <m/>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <d v="2022-09-15T22:23:08"/>
-    <x v="9"/>
-    <x v="8"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-09-15T22:35:46"/>
-    <x v="9"/>
-    <x v="8"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2022-12-24T22:38:16"/>
-    <x v="9"/>
-    <x v="8"/>
-    <n v="75"/>
-    <x v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <d v="2022-10-07T22:46:52"/>
-    <x v="9"/>
-    <x v="8"/>
-    <n v="75"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-</pivotCacheRecords>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C3AF26F-49E3-412B-800A-02FEF266560B}" name="Сводная таблица4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C3AF26F-49E3-412B-800A-02FEF266560B}" name="Сводная таблица4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B26:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="12">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
         <item x="6"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
-      <items count="4">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
+      <items count="2">
         <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6770,53 +4556,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3851D4B2-E9C5-4DB6-A058-52772D21276F}" name="Сводная таблица2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Месяц">
-  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3851D4B2-E9C5-4DB6-A058-52772D21276F}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Месяц">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="12">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
       <items count="11">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="10"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6830,43 +4575,40 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -6902,13 +4644,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC8545B0-8BFC-4E16-97B5-7CDBB8950AE0}" name="Сводная таблица3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Организации">
-  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC8545B0-8BFC-4E16-97B5-7CDBB8950AE0}" name="Сводная таблица3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Организации">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="10"/>
+      <items count="11">
+        <item x="9"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6918,47 +4660,33 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="11">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item x="5"/>
         <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
-      <items count="4">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
+      <items count="2">
         <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6966,39 +4694,9 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -7034,29 +4732,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E97AA5DF-D3CA-4D99-B875-C09113DA7F73}" name="Сводная таблица5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Регион">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E97AA5DF-D3CA-4D99-B875-C09113DA7F73}" name="Сводная таблица5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Регион">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="12">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
       <items count="11">
-        <item x="9"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7066,31 +4747,34 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
-      <items count="4">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
+      <items count="2">
         <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7098,36 +4782,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -7163,64 +4820,59 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6977DF44-351A-4CBB-8C87-3E9545B56DF3}" name="Сводная таблица6" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Год">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6977DF44-351A-4CBB-8C87-3E9545B56DF3}" name="Сводная таблица6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Год">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="12">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
         <item x="6"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
+    <pivotField showAll="0">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -7256,26 +4908,16 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Месяцы" xr10:uid="{2F739DB7-2768-4821-B76B-860B359A9664}" sourceName="Месяцы">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяцы" xr10:uid="{64536b9e-9358-46a0-9efd-4b259b554da8}" name="Slicer_Месяцы" mc:Ignorable="x xr10">
   <pivotTables>
-    <pivotTable tabId="7" name="Сводная таблица4"/>
-    <pivotTable tabId="4" name="Сводная таблица3"/>
-    <pivotTable tabId="5" name="Сводная таблица5"/>
+    <pivotTable name="Сводная таблица4" tabId="7"/>
+    <pivotTable name="Сводная таблица3" tabId="4"/>
+    <pivotTable name="Сводная таблица5" tabId="5"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="11">
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="6" s="1"/>
+      <items count="1">
         <i x="0" s="1"/>
-        <i x="7" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="5" s="1"/>
-        <i x="9" s="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7283,26 +4925,25 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Регион" xr10:uid="{A0D184F5-D2B8-4891-924D-5C38717FD360}" sourceName="Регион">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{d555797a-713e-4fab-9d66-ba2595698edd}" name="Slicer_Регион" mc:Ignorable="x xr10">
   <pivotTables>
-    <pivotTable tabId="7" name="Сводная таблица4"/>
-    <pivotTable tabId="3" name="Сводная таблица2"/>
-    <pivotTable tabId="4" name="Сводная таблица3"/>
-    <pivotTable tabId="6" name="Сводная таблица6"/>
+    <pivotTable name="Сводная таблица4" tabId="7"/>
+    <pivotTable name="Сводная таблица2" tabId="3"/>
+    <pivotTable name="Сводная таблица3" tabId="4"/>
+    <pivotTable name="Сводная таблица6" tabId="6"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="10">
+      <items count="9">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
         <i x="4" s="1"/>
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
+        <i x="5" s="1"/>
         <i x="6" s="1"/>
-        <i x="0" s="1"/>
-        <i x="5" s="1"/>
         <i x="7" s="1"/>
         <i x="8" s="1"/>
-        <i x="9" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7310,27 +4951,26 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Организация" xr10:uid="{E76BB999-CFA4-429C-9532-570E77ADDFD2}" sourceName="Организация">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Организация" xr10:uid="{ca4f07f3-d7aa-4658-ad91-34ac5144c755}" name="Slicer_Организация" mc:Ignorable="x xr10">
   <pivotTables>
-    <pivotTable tabId="7" name="Сводная таблица4"/>
-    <pivotTable tabId="3" name="Сводная таблица2"/>
-    <pivotTable tabId="5" name="Сводная таблица5"/>
-    <pivotTable tabId="6" name="Сводная таблица6"/>
+    <pivotTable name="Сводная таблица4" tabId="7"/>
+    <pivotTable name="Сводная таблица2" tabId="3"/>
+    <pivotTable name="Сводная таблица5" tabId="5"/>
+    <pivotTable name="Сводная таблица6" tabId="6"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="11">
+      <items count="10">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1"/>
+        <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
+        <i x="6" s="1"/>
         <i x="7" s="1"/>
         <i x="8" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
         <i x="9" s="1"/>
-        <i x="6" s="1"/>
-        <i x="0" s="1"/>
-        <i x="10" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7338,19 +4978,17 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Годы" xr10:uid="{C2016DE1-2C74-4BD3-84A9-06D0AB5006E0}" sourceName="Годы">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Годы" xr10:uid="{9876a489-7a28-476c-958f-17bb5b08d879}" name="Slicer_Годы" mc:Ignorable="x xr10">
   <pivotTables>
-    <pivotTable tabId="7" name="Сводная таблица4"/>
-    <pivotTable tabId="3" name="Сводная таблица2"/>
-    <pivotTable tabId="4" name="Сводная таблица3"/>
-    <pivotTable tabId="5" name="Сводная таблица5"/>
+    <pivotTable name="Сводная таблица4" tabId="7"/>
+    <pivotTable name="Сводная таблица2" tabId="3"/>
+    <pivotTable name="Сводная таблица3" tabId="4"/>
+    <pivotTable name="Сводная таблица5" tabId="5"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="3">
+      <items count="1">
         <i x="0" s="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7358,11 +4996,11 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Месяцы" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Месяцы" caption="Месяцы" style="SlicerStyleOther2" rowHeight="241300"/>
-  <slicer name="Регион" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Регион" caption="Регионы" style="SlicerStyleOther2" rowHeight="241300"/>
-  <slicer name="Организация" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Организация" caption="Организации" style="SlicerStyleOther2" rowHeight="241300"/>
-  <slicer name="Годы" xr10:uid="{00000000-0014-0000-FFFF-FFFF04000000}" cache="Slicer_Годы" caption="Годы" style="SlicerStyleOther2" rowHeight="241300"/>
+<slicers xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x xr10">
+  <slicer name="Месяцы" caption="Месяцы" rowHeight="241300" cache="Slicer_Месяцы" style="SlicerStyleOther2"/>
+  <slicer name="Регион" caption="Регионы" rowHeight="241300" cache="Slicer_Регион" style="SlicerStyleOther2"/>
+  <slicer name="Организация" caption="Организации" rowHeight="241300" cache="Slicer_Организация" style="SlicerStyleOther2"/>
+  <slicer name="Годы" caption="Годы" rowHeight="241300" cache="Slicer_Годы" style="SlicerStyleOther2"/>
 </slicers>
 </file>
 
@@ -7651,38 +5289,40 @@
   <sheetPr published="0">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q53"/>
+  <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1" style="2"/>
+    <col min="2" max="2" bestFit="1" width="28.5703125" customWidth="1" style="2"/>
+    <col min="3" max="3" bestFit="1" width="24" customWidth="1" style="2"/>
+    <col min="4" max="4" bestFit="1" width="10.85546875" customWidth="1" style="2"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" style="2"/>
+    <col min="6" max="6" bestFit="1" width="6" customWidth="1" style="2"/>
+    <col min="7" max="7" bestFit="1" width="6" customWidth="1" style="2"/>
+    <col min="8" max="8" bestFit="1" width="5" customWidth="1" style="2"/>
+    <col min="9" max="9" bestFit="1" width="6" customWidth="1" style="2"/>
+    <col min="10" max="10" bestFit="1" width="6" customWidth="1" style="2"/>
+    <col min="11" max="11" bestFit="1" width="3.7109375" customWidth="1" style="2"/>
+    <col min="12" max="12" bestFit="1" width="5" customWidth="1" style="2"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1" style="2"/>
+    <col min="14" max="14" bestFit="1" width="6" customWidth="1" style="2"/>
+    <col min="15" max="16" bestFit="1" width="24" customWidth="1" style="2"/>
+    <col min="17" max="17" bestFit="1" width="7" customWidth="1" style="2"/>
+    <col min="18" max="18" bestFit="1" width="7.42578125" customWidth="1" style="2"/>
+    <col min="19" max="19" bestFit="1" width="11.85546875" customWidth="1" style="2"/>
+    <col min="20" max="20" width="9.140625" customWidth="1" style="2"/>
+    <col min="21" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="11.25" customHeight="1"/>
+    <row r="2" ht="18" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7700,56 +5340,71 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="G11" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" s="3"/>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="15">
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" ht="15">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" ht="15"/>
+    <row r="29" ht="15"/>
+    <row r="30" ht="15"/>
+    <row r="31" ht="15"/>
+    <row r="32" ht="15"/>
+    <row r="33" ht="15"/>
+    <row r="34" ht="15"/>
+    <row r="35" ht="15"/>
+    <row r="36" ht="15"/>
+    <row r="37" ht="15"/>
+    <row r="38" ht="15"/>
+    <row r="39" ht="15"/>
+    <row r="40" ht="15"/>
+    <row r="41" ht="15"/>
+    <row r="42" ht="15"/>
+    <row r="43" ht="15"/>
+    <row r="49" s="2" customFormat="1"/>
+    <row r="50" s="2" customFormat="1"/>
+    <row r="51" s="2" customFormat="1"/>
+    <row r="52" s="2" customFormat="1"/>
+    <row r="53" s="2" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="E34:E35">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$B34="продажи всего"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
@@ -7795,2733 +5450,3177 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.2525405883789" customWidth="1" style="9"/>
+    <col min="2" max="2" width="15.6284702845982" customWidth="1" style="10"/>
+    <col min="3" max="3" width="10.0558329990932" customWidth="1" style="10"/>
+    <col min="4" max="4" width="11.4298101152693" customWidth="1" style="10"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="10"/>
+    <col min="6" max="6" width="11.123913356236" customWidth="1" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3">
+      <c r="A3" s="9">
         <v>44752</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
-        <v>1134000</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E66" si="0">IF(ISBLANK(A3),"",YEAR(A3))</f>
-        <v>2022</v>
-      </c>
-      <c r="F3" s="9" t="str">
-        <f t="shared" ref="F3:F66" si="1">IF(ISBLANK(A3),"",TEXT(A3,"ММММ"))</f>
-        <v>Июль</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>44814</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="D3" s="10">
+        <v>4488650</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f ref="E3:E66" t="shared" si="0">IF(ISBLANK(A3),"",YEAR(A3))</f>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f ref="F3:F66" t="shared" si="1">IF(ISBLANK(A3),"",TEXT(A3,"ММММ"))</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10">
+        <v>111000</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="1"/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9">
+        <v>44664</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D5" s="10">
+        <v>134000</v>
+      </c>
+      <c r="E5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F4" s="9" t="str">
+      </c>
+      <c r="F5" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Сентябрь</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>44844</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9">
+        <v>44665</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D6" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F5" s="9" t="str">
+      </c>
+      <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Октябрь</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>44572</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9">
+        <v>44667</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D7" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F6" s="9" t="str">
+      </c>
+      <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Январь</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>44603</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
+        <v>44669</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D8" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F7" s="9" t="str">
+      </c>
+      <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Февраль</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>44889</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9">
+        <v>44671</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9">
-        <v>256500</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D9" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F8" s="9" t="str">
+      </c>
+      <c r="F9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Ноябрь</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>44824</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9">
+        <v>44701</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D10" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F9" s="9" t="str">
+      </c>
+      <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Сентябрь</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>44733</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9">
+        <v>44723</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D11" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F10" s="9" t="str">
+      </c>
+      <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Июнь</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>44788</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
+        <v>44727</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9">
-        <v>67500</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D12" s="10">
+        <v>37500</v>
+      </c>
+      <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F11" s="9" t="str">
+      </c>
+      <c r="F12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Август</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>44669.794878159701</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9">
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
+        <v>44730</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="10">
+        <v>75000</v>
+      </c>
+      <c r="E13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F12" s="9" t="str">
+      </c>
+      <c r="F13" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Апрель</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>44719.802394791703</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9">
-        <v>150</v>
-      </c>
-      <c r="E13" s="9">
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9">
+        <v>44750</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <v>60000</v>
+      </c>
+      <c r="E14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F13" s="9" t="str">
+      </c>
+      <c r="F14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Июнь</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>44741.884770833298</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="9">
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9">
+        <v>44760</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10">
+        <v>105000</v>
+      </c>
+      <c r="E15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F14" s="9" t="str">
+      </c>
+      <c r="F15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Июнь</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>44719.924045289401</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9">
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9">
+        <v>44874</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10">
+        <v>255000</v>
+      </c>
+      <c r="E16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F15" s="9" t="str">
+      </c>
+      <c r="F16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Июнь</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>45853.928554780097</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9">
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9">
+        <v>44875</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10">
+        <v>105000</v>
+      </c>
+      <c r="E17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="F16" s="9" t="str">
+      </c>
+      <c r="F17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Июль</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>44730.930725729202</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="9">
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9">
+        <v>44910</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10">
+        <v>255000</v>
+      </c>
+      <c r="E18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F17" s="9" t="str">
+      </c>
+      <c r="F18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Июнь</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>44819.932729282402</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="9">
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9">
+        <v>44609</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10">
+        <v>75000</v>
+      </c>
+      <c r="E19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F18" s="9" t="str">
+      </c>
+      <c r="F19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Сентябрь</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>44819.941503900503</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="9">
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9">
+        <v>44613</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10">
+        <v>117000</v>
+      </c>
+      <c r="E20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F19" s="9" t="str">
+      </c>
+      <c r="F20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Сентябрь</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>44919.943235844898</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="9">
-        <v>75</v>
-      </c>
-      <c r="E20" s="9">
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9">
+        <v>44617</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1053000</v>
+      </c>
+      <c r="E21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F20" s="9" t="str">
+      </c>
+      <c r="F21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Декабрь</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>44841.949210150502</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9">
-        <v>75</v>
-      </c>
-      <c r="E21" s="9">
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F21" s="9" t="str">
+      </c>
+      <c r="F22" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Октябрь</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="9" t="str">
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="9" t="str">
+      </c>
+      <c r="F23" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="9" t="str">
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="9" t="str">
+      </c>
+      <c r="F24" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="9" t="str">
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="9" t="str">
+      </c>
+      <c r="F25" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="9" t="str">
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="9" t="str">
+      </c>
+      <c r="F26" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="9" t="str">
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="9" t="str">
+      </c>
+      <c r="F27" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="9" t="str">
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="9" t="str">
+      </c>
+      <c r="F28" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="9" t="str">
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="9" t="str">
+      </c>
+      <c r="F29" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="9" t="str">
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="9" t="str">
+      </c>
+      <c r="F30" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="9" t="str">
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="9" t="str">
+      </c>
+      <c r="F31" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="9" t="str">
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="9" t="str">
+      </c>
+      <c r="F32" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="9" t="str">
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="9" t="str">
+      </c>
+      <c r="F33" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="9" t="str">
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="9" t="str">
+      </c>
+      <c r="F34" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="9" t="str">
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="9" t="str">
+      </c>
+      <c r="F35" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="9" t="str">
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="9" t="str">
+      </c>
+      <c r="F36" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="9" t="str">
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="9" t="str">
+      </c>
+      <c r="F37" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="9" t="str">
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="9" t="str">
+      </c>
+      <c r="F38" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="9" t="str">
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="9" t="str">
+      </c>
+      <c r="F39" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="9" t="str">
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" s="9" t="str">
+      </c>
+      <c r="F40" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="9" t="str">
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" s="9" t="str">
+      </c>
+      <c r="F41" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="9" t="str">
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" s="9" t="str">
+      </c>
+      <c r="F42" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="9" t="str">
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="9" t="str">
+      </c>
+      <c r="F43" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="9" t="str">
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43" s="9" t="str">
+      </c>
+      <c r="F44" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="9" t="str">
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F44" s="9" t="str">
+      </c>
+      <c r="F45" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="9" t="str">
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F45" s="9" t="str">
+      </c>
+      <c r="F46" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="9" t="str">
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F46" s="9" t="str">
+      </c>
+      <c r="F47" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="9" t="str">
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F47" s="9" t="str">
+      </c>
+      <c r="F48" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="9" t="str">
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F48" s="9" t="str">
+      </c>
+      <c r="F49" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="9" t="str">
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F49" s="9" t="str">
+      </c>
+      <c r="F50" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="9" t="str">
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F50" s="9" t="str">
+      </c>
+      <c r="F51" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="9" t="str">
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F51" s="9" t="str">
+      </c>
+      <c r="F52" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="9" t="str">
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F52" s="9" t="str">
+      </c>
+      <c r="F53" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="9" t="str">
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F53" s="9" t="str">
+      </c>
+      <c r="F54" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="9" t="str">
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F54" s="9" t="str">
+      </c>
+      <c r="F55" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="9" t="str">
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F55" s="9" t="str">
+      </c>
+      <c r="F56" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="9" t="str">
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F56" s="9" t="str">
+      </c>
+      <c r="F57" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="9" t="str">
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F57" s="9" t="str">
+      </c>
+      <c r="F58" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="9" t="str">
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F58" s="9" t="str">
+      </c>
+      <c r="F59" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="9" t="str">
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F59" s="9" t="str">
+      </c>
+      <c r="F60" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="9" t="str">
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F60" s="9" t="str">
+      </c>
+      <c r="F61" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="9" t="str">
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F61" s="9" t="str">
+      </c>
+      <c r="F62" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="9" t="str">
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F62" s="9" t="str">
+      </c>
+      <c r="F63" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="9" t="str">
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F63" s="9" t="str">
+      </c>
+      <c r="F64" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="9" t="str">
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F64" s="9" t="str">
+      </c>
+      <c r="F65" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="9" t="str">
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F65" s="9" t="str">
+      </c>
+      <c r="F66" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="9" t="str">
-        <f t="shared" ref="E67:E130" si="2">IF(ISBLANK(A67),"",YEAR(A67))</f>
-        <v/>
-      </c>
-      <c r="F67" s="9" t="str">
-        <f t="shared" ref="F67:F130" si="3">IF(ISBLANK(A67),"",TEXT(A67,"ММММ"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="9" t="str">
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="str">
+        <f ref="E67:E130" t="shared" si="2">IF(ISBLANK(A67),"",YEAR(A67))</f>
+      </c>
+      <c r="F67" s="10" t="str">
+        <f ref="F67:F130" t="shared" si="3">IF(ISBLANK(A67),"",TEXT(A67,"ММММ"))</f>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F68" s="9" t="str">
+      </c>
+      <c r="F68" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="9" t="str">
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F69" s="9" t="str">
+      </c>
+      <c r="F69" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="9" t="str">
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F70" s="9" t="str">
+      </c>
+      <c r="F70" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="9" t="str">
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F71" s="9" t="str">
+      </c>
+      <c r="F71" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="9" t="str">
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F72" s="9" t="str">
+      </c>
+      <c r="F72" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="9" t="str">
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F73" s="9" t="str">
+      </c>
+      <c r="F73" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E74" s="9" t="str">
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F74" s="9" t="str">
+      </c>
+      <c r="F74" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="9" t="str">
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F75" s="9" t="str">
+      </c>
+      <c r="F75" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="9" t="str">
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F76" s="9" t="str">
+      </c>
+      <c r="F76" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="9" t="str">
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F77" s="9" t="str">
+      </c>
+      <c r="F77" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="9" t="str">
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F78" s="9" t="str">
+      </c>
+      <c r="F78" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="9" t="str">
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F79" s="9" t="str">
+      </c>
+      <c r="F79" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="9" t="str">
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F80" s="9" t="str">
+      </c>
+      <c r="F80" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="9" t="str">
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F81" s="9" t="str">
+      </c>
+      <c r="F81" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="9" t="str">
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F82" s="9" t="str">
+      </c>
+      <c r="F82" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="9" t="str">
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F83" s="9" t="str">
+      </c>
+      <c r="F83" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="9" t="str">
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F84" s="9" t="str">
+      </c>
+      <c r="F84" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="9" t="str">
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F85" s="9" t="str">
+      </c>
+      <c r="F85" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="9" t="str">
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F86" s="9" t="str">
+      </c>
+      <c r="F86" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="9" t="str">
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F87" s="9" t="str">
+      </c>
+      <c r="F87" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="9" t="str">
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F88" s="9" t="str">
+      </c>
+      <c r="F88" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="9" t="str">
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F89" s="9" t="str">
+      </c>
+      <c r="F89" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="9" t="str">
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F90" s="9" t="str">
+      </c>
+      <c r="F90" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="9" t="str">
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F91" s="9" t="str">
+      </c>
+      <c r="F91" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="9" t="str">
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F92" s="9" t="str">
+      </c>
+      <c r="F92" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="9" t="str">
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F93" s="9" t="str">
+      </c>
+      <c r="F93" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="9" t="str">
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F94" s="9" t="str">
+      </c>
+      <c r="F94" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="9" t="str">
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F95" s="9" t="str">
+      </c>
+      <c r="F95" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="9" t="str">
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F96" s="9" t="str">
+      </c>
+      <c r="F96" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="9" t="str">
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F97" s="9" t="str">
+      </c>
+      <c r="F97" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="9" t="str">
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F98" s="9" t="str">
+      </c>
+      <c r="F98" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="9" t="str">
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F99" s="9" t="str">
+      </c>
+      <c r="F99" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="9" t="str">
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F100" s="9" t="str">
+      </c>
+      <c r="F100" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="9" t="str">
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F101" s="9" t="str">
+      </c>
+      <c r="F101" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="9" t="str">
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" s="9" t="str">
+      </c>
+      <c r="F102" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="9" t="str">
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F103" s="9" t="str">
+      </c>
+      <c r="F103" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="9" t="str">
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F104" s="9" t="str">
+      </c>
+      <c r="F104" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E105" s="9" t="str">
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F105" s="9" t="str">
+      </c>
+      <c r="F105" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="9" t="str">
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F106" s="9" t="str">
+      </c>
+      <c r="F106" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E107" s="9" t="str">
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F107" s="9" t="str">
+      </c>
+      <c r="F107" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E108" s="9" t="str">
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F108" s="9" t="str">
+      </c>
+      <c r="F108" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="9" t="str">
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F109" s="9" t="str">
+      </c>
+      <c r="F109" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E110" s="9" t="str">
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F110" s="9" t="str">
+      </c>
+      <c r="F110" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E111" s="9" t="str">
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F111" s="9" t="str">
+      </c>
+      <c r="F111" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E112" s="9" t="str">
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F112" s="9" t="str">
+      </c>
+      <c r="F112" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E113" s="9" t="str">
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F113" s="9" t="str">
+      </c>
+      <c r="F113" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="9" t="str">
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F114" s="9" t="str">
+      </c>
+      <c r="F114" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="9" t="str">
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F115" s="9" t="str">
+      </c>
+      <c r="F115" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E116" s="9" t="str">
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F116" s="9" t="str">
+      </c>
+      <c r="F116" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E117" s="9" t="str">
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F117" s="9" t="str">
+      </c>
+      <c r="F117" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E118" s="9" t="str">
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F118" s="9" t="str">
+      </c>
+      <c r="F118" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E119" s="9" t="str">
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F119" s="9" t="str">
+      </c>
+      <c r="F119" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E120" s="9" t="str">
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F120" s="9" t="str">
+      </c>
+      <c r="F120" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E121" s="9" t="str">
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F121" s="9" t="str">
+      </c>
+      <c r="F121" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E122" s="9" t="str">
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F122" s="9" t="str">
+      </c>
+      <c r="F122" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="9" t="str">
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F123" s="9" t="str">
+      </c>
+      <c r="F123" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E124" s="9" t="str">
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F124" s="9" t="str">
+      </c>
+      <c r="F124" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E125" s="9" t="str">
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F125" s="9" t="str">
+      </c>
+      <c r="F125" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E126" s="9" t="str">
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F126" s="9" t="str">
+      </c>
+      <c r="F126" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="9" t="str">
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F127" s="9" t="str">
+      </c>
+      <c r="F127" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="9" t="str">
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F128" s="9" t="str">
+      </c>
+      <c r="F128" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="9" t="str">
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F129" s="9" t="str">
+      </c>
+      <c r="F129" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E130" s="9" t="str">
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F130" s="9" t="str">
+      </c>
+      <c r="F130" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E131" s="9" t="str">
-        <f t="shared" ref="E131:E194" si="4">IF(ISBLANK(A131),"",YEAR(A131))</f>
-        <v/>
-      </c>
-      <c r="F131" s="9" t="str">
-        <f t="shared" ref="F131:F194" si="5">IF(ISBLANK(A131),"",TEXT(A131,"ММММ"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="9" t="str">
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10" t="str">
+        <f ref="E131:E194" t="shared" si="4">IF(ISBLANK(A131),"",YEAR(A131))</f>
+      </c>
+      <c r="F131" s="10" t="str">
+        <f ref="F131:F194" t="shared" si="5">IF(ISBLANK(A131),"",TEXT(A131,"ММММ"))</f>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F132" s="9" t="str">
+      </c>
+      <c r="F132" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="9" t="str">
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F133" s="9" t="str">
+      </c>
+      <c r="F133" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="9" t="str">
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F134" s="9" t="str">
+      </c>
+      <c r="F134" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E135" s="9" t="str">
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F135" s="9" t="str">
+      </c>
+      <c r="F135" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="9" t="str">
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F136" s="9" t="str">
+      </c>
+      <c r="F136" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="9" t="str">
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F137" s="9" t="str">
+      </c>
+      <c r="F137" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E138" s="9" t="str">
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F138" s="9" t="str">
+      </c>
+      <c r="F138" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E139" s="9" t="str">
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F139" s="9" t="str">
+      </c>
+      <c r="F139" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="9" t="str">
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F140" s="9" t="str">
+      </c>
+      <c r="F140" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="9" t="str">
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F141" s="9" t="str">
+      </c>
+      <c r="F141" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E142" s="9" t="str">
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F142" s="9" t="str">
+      </c>
+      <c r="F142" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="9" t="str">
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F143" s="9" t="str">
+      </c>
+      <c r="F143" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="9" t="str">
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F144" s="9" t="str">
+      </c>
+      <c r="F144" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E145" s="9" t="str">
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F145" s="9" t="str">
+      </c>
+      <c r="F145" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E146" s="9" t="str">
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F146" s="9" t="str">
+      </c>
+      <c r="F146" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147" s="9" t="str">
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F147" s="9" t="str">
+      </c>
+      <c r="F147" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E148" s="9" t="str">
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F148" s="9" t="str">
+      </c>
+      <c r="F148" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149" s="9" t="str">
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F149" s="9" t="str">
+      </c>
+      <c r="F149" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150" s="9" t="str">
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F150" s="9" t="str">
+      </c>
+      <c r="F150" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E151" s="9" t="str">
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F151" s="9" t="str">
+      </c>
+      <c r="F151" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E152" s="9" t="str">
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F152" s="9" t="str">
+      </c>
+      <c r="F152" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E153" s="9" t="str">
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F153" s="9" t="str">
+      </c>
+      <c r="F153" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E154" s="9" t="str">
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F154" s="9" t="str">
+      </c>
+      <c r="F154" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E155" s="9" t="str">
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F155" s="9" t="str">
+      </c>
+      <c r="F155" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E156" s="9" t="str">
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F156" s="9" t="str">
+      </c>
+      <c r="F156" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E157" s="9" t="str">
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F157" s="9" t="str">
+      </c>
+      <c r="F157" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E158" s="9" t="str">
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F158" s="9" t="str">
+      </c>
+      <c r="F158" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E159" s="9" t="str">
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F159" s="9" t="str">
+      </c>
+      <c r="F159" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E160" s="9" t="str">
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F160" s="9" t="str">
+      </c>
+      <c r="F160" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E161" s="9" t="str">
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F161" s="9" t="str">
+      </c>
+      <c r="F161" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E162" s="9" t="str">
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F162" s="9" t="str">
+      </c>
+      <c r="F162" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E163" s="9" t="str">
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F163" s="9" t="str">
+      </c>
+      <c r="F163" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E164" s="9" t="str">
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F164" s="9" t="str">
+      </c>
+      <c r="F164" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E165" s="9" t="str">
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F165" s="9" t="str">
+      </c>
+      <c r="F165" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E166" s="9" t="str">
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F166" s="9" t="str">
+      </c>
+      <c r="F166" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E167" s="9" t="str">
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F167" s="9" t="str">
+      </c>
+      <c r="F167" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E168" s="9" t="str">
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F168" s="9" t="str">
+      </c>
+      <c r="F168" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E169" s="9" t="str">
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F169" s="9" t="str">
+      </c>
+      <c r="F169" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E170" s="9" t="str">
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F170" s="9" t="str">
+      </c>
+      <c r="F170" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E171" s="9" t="str">
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F171" s="9" t="str">
+      </c>
+      <c r="F171" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E172" s="9" t="str">
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F172" s="9" t="str">
+      </c>
+      <c r="F172" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E173" s="9" t="str">
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F173" s="9" t="str">
+      </c>
+      <c r="F173" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E174" s="9" t="str">
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F174" s="9" t="str">
+      </c>
+      <c r="F174" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E175" s="9" t="str">
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F175" s="9" t="str">
+      </c>
+      <c r="F175" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E176" s="9" t="str">
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F176" s="9" t="str">
+      </c>
+      <c r="F176" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E177" s="9" t="str">
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F177" s="9" t="str">
+      </c>
+      <c r="F177" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E178" s="9" t="str">
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F178" s="9" t="str">
+      </c>
+      <c r="F178" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E179" s="9" t="str">
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F179" s="9" t="str">
+      </c>
+      <c r="F179" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E180" s="9" t="str">
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F180" s="9" t="str">
+      </c>
+      <c r="F180" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E181" s="9" t="str">
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F181" s="9" t="str">
+      </c>
+      <c r="F181" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E182" s="9" t="str">
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F182" s="9" t="str">
+      </c>
+      <c r="F182" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E183" s="9" t="str">
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F183" s="9" t="str">
+      </c>
+      <c r="F183" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E184" s="9" t="str">
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F184" s="9" t="str">
+      </c>
+      <c r="F184" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E185" s="9" t="str">
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F185" s="9" t="str">
+      </c>
+      <c r="F185" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E186" s="9" t="str">
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F186" s="9" t="str">
+      </c>
+      <c r="F186" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E187" s="9" t="str">
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F187" s="9" t="str">
+      </c>
+      <c r="F187" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E188" s="9" t="str">
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F188" s="9" t="str">
+      </c>
+      <c r="F188" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E189" s="9" t="str">
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="9"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F189" s="9" t="str">
+      </c>
+      <c r="F189" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E190" s="9" t="str">
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F190" s="9" t="str">
+      </c>
+      <c r="F190" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E191" s="9" t="str">
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="9"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F191" s="9" t="str">
+      </c>
+      <c r="F191" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E192" s="9" t="str">
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F192" s="9" t="str">
+      </c>
+      <c r="F192" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E193" s="9" t="str">
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F193" s="9" t="str">
+      </c>
+      <c r="F193" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E194" s="9" t="str">
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F194" s="9" t="str">
+      </c>
+      <c r="F194" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E195" s="9" t="str">
-        <f t="shared" ref="E195:E251" si="6">IF(ISBLANK(A195),"",YEAR(A195))</f>
-        <v/>
-      </c>
-      <c r="F195" s="9" t="str">
-        <f t="shared" ref="F195:F251" si="7">IF(ISBLANK(A195),"",TEXT(A195,"ММММ"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E196" s="9" t="str">
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="9"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10" t="str">
+        <f ref="E195:E251" t="shared" si="6">IF(ISBLANK(A195),"",YEAR(A195))</f>
+      </c>
+      <c r="F195" s="10" t="str">
+        <f ref="F195:F251" t="shared" si="7">IF(ISBLANK(A195),"",TEXT(A195,"ММММ"))</f>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F196" s="9" t="str">
+      </c>
+      <c r="F196" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E197" s="9" t="str">
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="9"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F197" s="9" t="str">
+      </c>
+      <c r="F197" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E198" s="9" t="str">
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F198" s="9" t="str">
+      </c>
+      <c r="F198" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E199" s="9" t="str">
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="9"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F199" s="9" t="str">
+      </c>
+      <c r="F199" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E200" s="9" t="str">
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F200" s="9" t="str">
+      </c>
+      <c r="F200" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E201" s="9" t="str">
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="9"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F201" s="9" t="str">
+      </c>
+      <c r="F201" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E202" s="9" t="str">
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F202" s="9" t="str">
+      </c>
+      <c r="F202" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E203" s="9" t="str">
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="9"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F203" s="9" t="str">
+      </c>
+      <c r="F203" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E204" s="9" t="str">
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F204" s="9" t="str">
+      </c>
+      <c r="F204" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E205" s="9" t="str">
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="9"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F205" s="9" t="str">
+      </c>
+      <c r="F205" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E206" s="9" t="str">
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F206" s="9" t="str">
+      </c>
+      <c r="F206" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E207" s="9" t="str">
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="9"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F207" s="9" t="str">
+      </c>
+      <c r="F207" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E208" s="9" t="str">
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F208" s="9" t="str">
+      </c>
+      <c r="F208" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E209" s="9" t="str">
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="9"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F209" s="9" t="str">
+      </c>
+      <c r="F209" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E210" s="9" t="str">
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F210" s="9" t="str">
+      </c>
+      <c r="F210" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E211" s="9" t="str">
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="9"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F211" s="9" t="str">
+      </c>
+      <c r="F211" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E212" s="9" t="str">
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="9"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F212" s="9" t="str">
+      </c>
+      <c r="F212" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E213" s="9" t="str">
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="9"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F213" s="9" t="str">
+      </c>
+      <c r="F213" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E214" s="9" t="str">
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="9"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F214" s="9" t="str">
+      </c>
+      <c r="F214" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E215" s="9" t="str">
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="9"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F215" s="9" t="str">
+      </c>
+      <c r="F215" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E216" s="9" t="str">
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="9"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F216" s="9" t="str">
+      </c>
+      <c r="F216" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E217" s="9" t="str">
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="9"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F217" s="9" t="str">
+      </c>
+      <c r="F217" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E218" s="9" t="str">
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="9"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F218" s="9" t="str">
+      </c>
+      <c r="F218" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E219" s="9" t="str">
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="9"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F219" s="9" t="str">
+      </c>
+      <c r="F219" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E220" s="9" t="str">
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F220" s="9" t="str">
+      </c>
+      <c r="F220" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E221" s="9" t="str">
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F221" s="9" t="str">
+      </c>
+      <c r="F221" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E222" s="9" t="str">
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="9"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F222" s="9" t="str">
+      </c>
+      <c r="F222" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E223" s="9" t="str">
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F223" s="9" t="str">
+      </c>
+      <c r="F223" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E224" s="9" t="str">
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="9"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F224" s="9" t="str">
+      </c>
+      <c r="F224" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E225" s="9" t="str">
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F225" s="9" t="str">
+      </c>
+      <c r="F225" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E226" s="9" t="str">
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="9"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F226" s="9" t="str">
+      </c>
+      <c r="F226" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E227" s="9" t="str">
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F227" s="9" t="str">
+      </c>
+      <c r="F227" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E228" s="9" t="str">
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="9"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F228" s="9" t="str">
+      </c>
+      <c r="F228" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E229" s="9" t="str">
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F229" s="9" t="str">
+      </c>
+      <c r="F229" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E230" s="9" t="str">
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="9"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F230" s="9" t="str">
+      </c>
+      <c r="F230" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E231" s="9" t="str">
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="9"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F231" s="9" t="str">
+      </c>
+      <c r="F231" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E232" s="9" t="str">
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="9"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F232" s="9" t="str">
+      </c>
+      <c r="F232" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E233" s="9" t="str">
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F233" s="9" t="str">
+      </c>
+      <c r="F233" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E234" s="9" t="str">
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="9"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F234" s="9" t="str">
+      </c>
+      <c r="F234" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E235" s="9" t="str">
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="9"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F235" s="9" t="str">
+      </c>
+      <c r="F235" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E236" s="9" t="str">
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="9"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F236" s="9" t="str">
+      </c>
+      <c r="F236" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E237" s="9" t="str">
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F237" s="9" t="str">
+      </c>
+      <c r="F237" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E238" s="9" t="str">
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="9"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F238" s="9" t="str">
+      </c>
+      <c r="F238" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E239" s="9" t="str">
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="9"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F239" s="9" t="str">
+      </c>
+      <c r="F239" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E240" s="9" t="str">
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="9"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F240" s="9" t="str">
+      </c>
+      <c r="F240" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E241" s="9" t="str">
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="9"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F241" s="9" t="str">
+      </c>
+      <c r="F241" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E242" s="9" t="str">
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="9"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F242" s="9" t="str">
+      </c>
+      <c r="F242" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E243" s="9" t="str">
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="9"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F243" s="9" t="str">
+      </c>
+      <c r="F243" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E244" s="9" t="str">
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="9"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F244" s="9" t="str">
+      </c>
+      <c r="F244" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E245" s="9" t="str">
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="9"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F245" s="9" t="str">
+      </c>
+      <c r="F245" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E246" s="9" t="str">
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="9"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F246" s="9" t="str">
+      </c>
+      <c r="F246" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E247" s="9" t="str">
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="9"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F247" s="9" t="str">
+      </c>
+      <c r="F247" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E248" s="9" t="str">
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="9"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F248" s="9" t="str">
+      </c>
+      <c r="F248" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E249" s="9" t="str">
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="9"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F249" s="9" t="str">
+      </c>
+      <c r="F249" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E250" s="9" t="str">
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="9"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F250" s="9" t="str">
+      </c>
+      <c r="F250" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E251" s="9" t="str">
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="9"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F251" s="9" t="str">
+      </c>
+      <c r="F251" s="10" t="str">
         <f t="shared" si="7"/>
-        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -10530,124 +8629,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0265BB4-9566-4AF5-AEFF-FBB80A720F86}">
-  <dimension ref="A3:B15"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1134000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="7">
-        <v>256500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="7">
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1458300</v>
-      </c>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA314304-AD26-4980-B7BD-679EB0D18CD2}">
-  <dimension ref="A3:B15"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -10655,120 +8675,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1134000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7">
-        <v>256500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="7">
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1458300</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7306A39C-B4A6-47A4-83A8-4E75CCF31B3D}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -10776,112 +8715,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1134000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7">
-        <v>256500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="7">
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1458300</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A9E0A0-A64B-435E-8361-C9B8EC4CCD03}">
-  <dimension ref="A3:B7"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -10889,45 +8755,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1458300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1458300</v>
-      </c>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Thesis/Sale.xlsx
+++ b/Thesis/Sale.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Дата</t>
   </si>
@@ -73,57 +73,6 @@
   </si>
   <si>
     <t>Месяцы</t>
-  </si>
-  <si>
-    <t>Марко</t>
-  </si>
-  <si>
-    <t>Минск</t>
-  </si>
-  <si>
-    <t>Rylko</t>
-  </si>
-  <si>
-    <t>Basconi</t>
-  </si>
-  <si>
-    <t>Гомель</t>
-  </si>
-  <si>
-    <t>Shoes Terra</t>
-  </si>
-  <si>
-    <t>Годно</t>
-  </si>
-  <si>
-    <t>ECCO</t>
-  </si>
-  <si>
-    <t>Витебск</t>
-  </si>
-  <si>
-    <t>FAER</t>
-  </si>
-  <si>
-    <t>Брест</t>
-  </si>
-  <si>
-    <t>Луч</t>
-  </si>
-  <si>
-    <t>Могилев</t>
-  </si>
-  <si>
-    <t>Footterra</t>
-  </si>
-  <si>
-    <t>Жлобин</t>
-  </si>
-  <si>
-    <t>HitPrice</t>
-  </si>
-  <si>
-    <t>Полоцк</t>
   </si>
   <si>
     <t>Месяц</t>
@@ -4163,7 +4112,7 @@
             <xdr:cNvPr id="6" name="Месяцы">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{e232d608-192f-41fd-8375-e8c32a0443b6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f2bfc8ef-2595-4a86-83b9-14709407bb10}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4183,7 +4132,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="{e232d608-192f-41fd-8375-e8c32a0443b6}"/>
+            <xdr:cNvPr id="6" name="{f2bfc8ef-2595-4a86-83b9-14709407bb10}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4230,7 +4179,7 @@
             <xdr:cNvPr id="7" name="Регион">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{d9cba74a-41be-47fa-b1b4-a14b7cbf7608}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f8a220f1-bd30-4fcf-b8de-7847051214c1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4250,7 +4199,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="{d9cba74a-41be-47fa-b1b4-a14b7cbf7608}"/>
+            <xdr:cNvPr id="7" name="{f8a220f1-bd30-4fcf-b8de-7847051214c1}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4297,7 +4246,7 @@
             <xdr:cNvPr id="8" name="Организация">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293b70c3-5221-4df2-af2a-145104729d4f}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06b354c2-6819-4fa5-9629-8574cb5abc1b}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4317,7 +4266,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="{293b70c3-5221-4df2-af2a-145104729d4f}"/>
+            <xdr:cNvPr id="8" name="{06b354c2-6819-4fa5-9629-8574cb5abc1b}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4364,7 +4313,7 @@
             <xdr:cNvPr id="9" name="Годы">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0666185f-22af-472e-8357-c1785f1cf6ea}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41c65293-18f6-4f90-abba-69068a0862ca}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4384,7 +4333,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="{0666185f-22af-472e-8357-c1785f1cf6ea}"/>
+            <xdr:cNvPr id="9" name="{41c65293-18f6-4f90-abba-69068a0862ca}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4431,37 +4380,20 @@
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Дата" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsString="0"/>
+      <sharedItems containsBlank="1" containsString="0"/>
     </cacheField>
     <cacheField name="Организация" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="Марко"/>
-        <s v="Rylko"/>
-        <s v="Basconi"/>
-        <s v="Shoes Terra"/>
-        <s v="ECCO"/>
-        <s v="FAER"/>
-        <s v="Луч"/>
-        <s v="Footterra"/>
-        <s v="HitPrice"/>
+      <sharedItems containsBlank="1" containsString="0">
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Регион" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="Минск"/>
-        <s v="Гомель"/>
-        <s v="Годно"/>
-        <s v="Витебск"/>
-        <s v="Брест"/>
-        <s v="Могилев"/>
-        <s v="Жлобин"/>
-        <s v="Полоцк"/>
+      <sharedItems containsBlank="1" containsString="0">
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Выручка" numFmtId="0">
-      <sharedItems containsNumber="1" containsInteger="1" containsBlank="1" containsString="0"/>
+      <sharedItems containsBlank="1" containsString="0"/>
     </cacheField>
     <cacheField name="Годы" numFmtId="0">
       <sharedItems>
@@ -4492,31 +4424,14 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="11">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4561,31 +4476,14 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="11">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4649,31 +4547,14 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="9"/>
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4737,31 +4618,14 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="11">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="8"/>
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4825,31 +4689,14 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="11">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="10">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4908,7 +4755,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяцы" xr10:uid="{64536b9e-9358-46a0-9efd-4b259b554da8}" name="Slicer_Месяцы" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяцы" xr10:uid="{83169139-138d-4017-ac30-987dcbec995c}" name="Slicer_Месяцы" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица3" tabId="4"/>
@@ -4925,7 +4772,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{d555797a-713e-4fab-9d66-ba2595698edd}" name="Slicer_Регион" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{e34818e0-56ee-4775-9f51-399a9a00c1bd}" name="Slicer_Регион" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -4934,16 +4781,8 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="9">
+      <items count="1">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -4951,7 +4790,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Организация" xr10:uid="{ca4f07f3-d7aa-4658-ad91-34ac5144c755}" name="Slicer_Организация" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Организация" xr10:uid="{3a75864f-ce21-44e3-b582-e1984ad530fb}" name="Slicer_Организация" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -4960,17 +4799,8 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="10">
+      <items count="1">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
-        <i x="9" s="1"/>
       </items>
     </tabular>
   </data>
@@ -4978,7 +4808,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Годы" xr10:uid="{9876a489-7a28-476c-958f-17bb5b08d879}" name="Slicer_Годы" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Годы" xr10:uid="{fba4e82e-02bc-451a-bbaa-fc179a4c3a12}" name="Slicer_Годы" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5322,7 +5152,7 @@
     <row r="1" ht="11.25" customHeight="1"/>
     <row r="2" ht="18" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5342,14 +5172,14 @@
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -5360,16 +5190,16 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="15">
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="15">
@@ -5450,7 +5280,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.2525405883789" customWidth="1" style="9"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="9"/>
     <col min="2" max="2" width="15.6284702845982" customWidth="1" style="10"/>
     <col min="3" max="3" width="10.0558329990932" customWidth="1" style="10"/>
     <col min="4" max="4" width="11.4298101152693" customWidth="1" style="10"/>
@@ -5479,18 +5309,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
-        <v>44752</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10">
-        <v>4488650</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="10" t="str">
         <f ref="E3:E66" t="shared" si="0">IF(ISBLANK(A3),"",YEAR(A3))</f>
       </c>
@@ -5499,18 +5321,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
-        <v>44621</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10">
-        <v>111000</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5519,18 +5333,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
-        <v>44664</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10">
-        <v>134000</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5539,18 +5345,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
-        <v>44665</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10">
-        <v>30000</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5559,18 +5357,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
-        <v>44667</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10">
-        <v>30000</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5579,18 +5369,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9">
-        <v>44669</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10">
-        <v>30000</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5599,18 +5381,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9">
-        <v>44671</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10">
-        <v>10000</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5619,18 +5393,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9">
-        <v>44701</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10">
-        <v>30000</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5639,18 +5405,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9">
-        <v>44723</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10">
-        <v>30000</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5659,18 +5417,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9">
-        <v>44727</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10">
-        <v>37500</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5679,18 +5429,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9">
-        <v>44730</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="10">
-        <v>75000</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5699,18 +5441,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9">
-        <v>44750</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10">
-        <v>60000</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5719,18 +5453,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9">
-        <v>44760</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10">
-        <v>105000</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5739,18 +5465,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9">
-        <v>44874</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="10">
-        <v>255000</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5759,18 +5477,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9">
-        <v>44875</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="10">
-        <v>105000</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5779,18 +5489,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9">
-        <v>44910</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10">
-        <v>255000</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5799,18 +5501,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9">
-        <v>44609</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="10">
-        <v>75000</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5819,18 +5513,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9">
-        <v>44613</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="10">
-        <v>117000</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5839,18 +5525,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9">
-        <v>44617</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1053000</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -8643,10 +8321,10 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8655,7 +8333,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8"/>
     </row>
@@ -8681,21 +8359,21 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8"/>
     </row>
@@ -8724,18 +8402,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8"/>
     </row>
@@ -8761,10 +8439,10 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -8773,7 +8451,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8"/>
     </row>

--- a/Thesis/Sale.xlsx
+++ b/Thesis/Sale.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Дата</t>
   </si>
@@ -73,6 +73,57 @@
   </si>
   <si>
     <t>Месяцы</t>
+  </si>
+  <si>
+    <t>Rylko</t>
+  </si>
+  <si>
+    <t>Минск</t>
+  </si>
+  <si>
+    <t>Basconi</t>
+  </si>
+  <si>
+    <t>Гомель</t>
+  </si>
+  <si>
+    <t>Shoes Terra</t>
+  </si>
+  <si>
+    <t>Годно</t>
+  </si>
+  <si>
+    <t>ECCO</t>
+  </si>
+  <si>
+    <t>Витебск</t>
+  </si>
+  <si>
+    <t>FAER</t>
+  </si>
+  <si>
+    <t>Брест</t>
+  </si>
+  <si>
+    <t>Луч</t>
+  </si>
+  <si>
+    <t>Могилев</t>
+  </si>
+  <si>
+    <t>Footterra</t>
+  </si>
+  <si>
+    <t>Жлобин</t>
+  </si>
+  <si>
+    <t>HitPrice</t>
+  </si>
+  <si>
+    <t>Полоцк</t>
+  </si>
+  <si>
+    <t>Марко</t>
   </si>
   <si>
     <t>Месяц</t>
@@ -4112,7 +4163,7 @@
             <xdr:cNvPr id="6" name="Месяцы">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f2bfc8ef-2595-4a86-83b9-14709407bb10}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87099db2-e27a-4bc0-bf97-4b11c470152e}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4132,7 +4183,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="{f2bfc8ef-2595-4a86-83b9-14709407bb10}"/>
+            <xdr:cNvPr id="6" name="{87099db2-e27a-4bc0-bf97-4b11c470152e}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4179,7 +4230,7 @@
             <xdr:cNvPr id="7" name="Регион">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f8a220f1-bd30-4fcf-b8de-7847051214c1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8c3fb60d-1db0-4cdd-9484-1899c4dd63f8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4199,7 +4250,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="{f8a220f1-bd30-4fcf-b8de-7847051214c1}"/>
+            <xdr:cNvPr id="7" name="{8c3fb60d-1db0-4cdd-9484-1899c4dd63f8}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4246,7 +4297,7 @@
             <xdr:cNvPr id="8" name="Организация">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06b354c2-6819-4fa5-9629-8574cb5abc1b}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{cd566198-5393-4241-b0e2-4c4184ff39a2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4266,7 +4317,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="{06b354c2-6819-4fa5-9629-8574cb5abc1b}"/>
+            <xdr:cNvPr id="8" name="{cd566198-5393-4241-b0e2-4c4184ff39a2}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4313,7 +4364,7 @@
             <xdr:cNvPr id="9" name="Годы">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41c65293-18f6-4f90-abba-69068a0862ca}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1f083f4d-2479-457e-991b-7506d8cf9967}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4333,7 +4384,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="{41c65293-18f6-4f90-abba-69068a0862ca}"/>
+            <xdr:cNvPr id="9" name="{1f083f4d-2479-457e-991b-7506d8cf9967}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4380,20 +4431,37 @@
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Дата" numFmtId="0">
-      <sharedItems containsBlank="1" containsString="0"/>
+      <sharedItems containsDate="1" containsBlank="1" containsString="0"/>
     </cacheField>
     <cacheField name="Организация" numFmtId="0">
-      <sharedItems containsBlank="1" containsString="0">
+      <sharedItems containsBlank="1">
+        <s v="Rylko"/>
+        <s v="Basconi"/>
+        <s v="Shoes Terra"/>
+        <s v="ECCO"/>
+        <s v="FAER"/>
+        <s v="Луч"/>
+        <s v="Footterra"/>
+        <s v="HitPrice"/>
+        <s v="Марко"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Регион" numFmtId="0">
-      <sharedItems containsBlank="1" containsString="0">
+      <sharedItems containsBlank="1">
+        <s v="Минск"/>
+        <s v="Гомель"/>
+        <s v="Годно"/>
+        <s v="Витебск"/>
+        <s v="Брест"/>
+        <s v="Могилев"/>
+        <s v="Жлобин"/>
+        <s v="Полоцк"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Выручка" numFmtId="0">
-      <sharedItems containsBlank="1" containsString="0"/>
+      <sharedItems containsNumber="1" containsInteger="1" containsBlank="1" containsString="0"/>
     </cacheField>
     <cacheField name="Годы" numFmtId="0">
       <sharedItems>
@@ -4424,14 +4492,31 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="11">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="10">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4476,14 +4561,31 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="11">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="10">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4547,14 +4649,31 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="2">
+      <items count="11">
+        <item x="9"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="10">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4618,14 +4737,31 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="11">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="2">
+      <items count="10">
+        <item x="8"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4689,14 +4825,31 @@
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="11">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="10">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4755,7 +4908,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяцы" xr10:uid="{83169139-138d-4017-ac30-987dcbec995c}" name="Slicer_Месяцы" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяцы" xr10:uid="{91bef5c6-97ab-4ad9-ac49-d70380820b38}" name="Slicer_Месяцы" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица3" tabId="4"/>
@@ -4772,7 +4925,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{e34818e0-56ee-4775-9f51-399a9a00c1bd}" name="Slicer_Регион" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{34ab549a-5f25-4274-89f4-c668ae5beb66}" name="Slicer_Регион" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -4781,8 +4934,16 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="1">
+      <items count="9">
         <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -4790,7 +4951,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Организация" xr10:uid="{3a75864f-ce21-44e3-b582-e1984ad530fb}" name="Slicer_Организация" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Организация" xr10:uid="{b087494e-6f8b-4bd1-94ff-352f7457c7c0}" name="Slicer_Организация" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -4799,8 +4960,17 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="6">
-      <items count="1">
+      <items count="10">
         <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
       </items>
     </tabular>
   </data>
@@ -4808,7 +4978,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Годы" xr10:uid="{fba4e82e-02bc-451a-bbaa-fc179a4c3a12}" name="Slicer_Годы" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Годы" xr10:uid="{8a673ff5-2724-4919-ab09-d9334ab8c497}" name="Slicer_Годы" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -5152,7 +5322,7 @@
     <row r="1" ht="11.25" customHeight="1"/>
     <row r="2" ht="18" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5172,14 +5342,14 @@
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -5190,16 +5360,16 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="15">
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="15">
@@ -5280,7 +5450,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="9"/>
+    <col min="1" max="1" width="11.2525405883789" customWidth="1" style="9"/>
     <col min="2" max="2" width="15.6284702845982" customWidth="1" style="10"/>
     <col min="3" max="3" width="10.0558329990932" customWidth="1" style="10"/>
     <col min="4" max="4" width="11.4298101152693" customWidth="1" style="10"/>
@@ -5309,10 +5479,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="9">
+        <v>44664</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10">
+        <v>134000</v>
+      </c>
       <c r="E3" s="10" t="str">
         <f ref="E3:E66" t="shared" si="0">IF(ISBLANK(A3),"",YEAR(A3))</f>
       </c>
@@ -5321,10 +5499,18 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="9">
+        <v>44665</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>30000</v>
+      </c>
       <c r="E4" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5333,10 +5519,18 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="9">
+        <v>44667</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10">
+        <v>30000</v>
+      </c>
       <c r="E5" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5345,10 +5539,18 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="9">
+        <v>44669</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10">
+        <v>30000</v>
+      </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5357,10 +5559,18 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="9">
+        <v>44671</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10000</v>
+      </c>
       <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5369,10 +5579,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="9">
+        <v>44701</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10">
+        <v>30000</v>
+      </c>
       <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5381,10 +5599,18 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="9">
+        <v>44723</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10">
+        <v>30000</v>
+      </c>
       <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5393,10 +5619,18 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="9">
+        <v>44727</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10">
+        <v>37500</v>
+      </c>
       <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5405,10 +5639,18 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="9">
+        <v>44730</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>75000</v>
+      </c>
       <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5417,10 +5659,18 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="9">
+        <v>44750</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10">
+        <v>60000</v>
+      </c>
       <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5429,10 +5679,18 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="9">
+        <v>44760</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10">
+        <v>105000</v>
+      </c>
       <c r="E13" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5441,10 +5699,18 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="9">
+        <v>44874</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10">
+        <v>255000</v>
+      </c>
       <c r="E14" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5453,10 +5719,18 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="9">
+        <v>44875</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10">
+        <v>105000</v>
+      </c>
       <c r="E15" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5465,10 +5739,18 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="9">
+        <v>44910</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10">
+        <v>255000</v>
+      </c>
       <c r="E16" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5477,10 +5759,18 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="9">
+        <v>44613</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10">
+        <v>117000</v>
+      </c>
       <c r="E17" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -5489,10 +5779,18 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="9">
+        <v>44617</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1053000</v>
+      </c>
       <c r="E18" s="10" t="str">
         <f t="shared" si="0"/>
       </c>
@@ -8321,10 +8619,10 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -8333,7 +8631,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8"/>
     </row>
@@ -8359,21 +8657,21 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8"/>
     </row>
@@ -8402,18 +8700,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8"/>
     </row>
@@ -8439,10 +8737,10 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -8451,7 +8749,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8"/>
     </row>

--- a/Thesis/Sale.xlsx
+++ b/Thesis/Sale.xlsx
@@ -4163,7 +4163,7 @@
             <xdr:cNvPr id="6" name="Месяцы">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87099db2-e27a-4bc0-bf97-4b11c470152e}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3d83a686-e72e-4256-9bfc-b1caa26bb538}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4183,7 +4183,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="{87099db2-e27a-4bc0-bf97-4b11c470152e}"/>
+            <xdr:cNvPr id="6" name="{3d83a686-e72e-4256-9bfc-b1caa26bb538}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4230,7 +4230,7 @@
             <xdr:cNvPr id="7" name="Регион">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8c3fb60d-1db0-4cdd-9484-1899c4dd63f8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{c196e7b3-314c-499d-8a95-b663cbca9b3d}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4250,7 +4250,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="{8c3fb60d-1db0-4cdd-9484-1899c4dd63f8}"/>
+            <xdr:cNvPr id="7" name="{c196e7b3-314c-499d-8a95-b663cbca9b3d}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4297,7 +4297,7 @@
             <xdr:cNvPr id="8" name="Организация">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{cd566198-5393-4241-b0e2-4c4184ff39a2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{bc7b8db6-b206-4b6b-b1ec-9df9232ece7f}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4317,7 +4317,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="{cd566198-5393-4241-b0e2-4c4184ff39a2}"/>
+            <xdr:cNvPr id="8" name="{bc7b8db6-b206-4b6b-b1ec-9df9232ece7f}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4364,7 +4364,7 @@
             <xdr:cNvPr id="9" name="Годы">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1f083f4d-2479-457e-991b-7506d8cf9967}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ab3361b-f6bb-45f2-8d35-f065143c6e95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4384,7 +4384,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="{1f083f4d-2479-457e-991b-7506d8cf9967}"/>
+            <xdr:cNvPr id="9" name="{9ab3361b-f6bb-45f2-8d35-f065143c6e95}"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -4908,7 +4908,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяцы" xr10:uid="{91bef5c6-97ab-4ad9-ac49-d70380820b38}" name="Slicer_Месяцы" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Месяцы" xr10:uid="{0bb05d65-18f3-460d-9e28-e946a51e3f44}" name="Slicer_Месяцы" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица3" tabId="4"/>
@@ -4925,7 +4925,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{34ab549a-5f25-4274-89f4-c668ae5beb66}" name="Slicer_Регион" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Регион" xr10:uid="{cc092b0e-154f-4cae-8378-bfa8472d2655}" name="Slicer_Регион" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Организация" xr10:uid="{b087494e-6f8b-4bd1-94ff-352f7457c7c0}" name="Slicer_Организация" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Организация" xr10:uid="{35abc899-552e-4139-8819-43cb305c73ec}" name="Slicer_Организация" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
@@ -4978,7 +4978,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Годы" xr10:uid="{8a673ff5-2724-4919-ab09-d9334ab8c497}" name="Slicer_Годы" mc:Ignorable="x xr10">
+<slicerCacheDefinition xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" sourceName="Годы" xr10:uid="{f728cf8f-f184-45ef-b539-0ca37667bad3}" name="Slicer_Годы" mc:Ignorable="x xr10">
   <pivotTables>
     <pivotTable name="Сводная таблица4" tabId="7"/>
     <pivotTable name="Сводная таблица2" tabId="3"/>
